--- a/02_MasterWifoMannheim/99_Backup/Course100.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course100.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD32051265F59281159FAD8707FFDFE68" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D28ECD12-480B-43D3-A538-353C654EF672}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>IS 629 Agile Software Product Management and Design</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>More and more products, from consumer to business markets, show an ever-increasing amount of software at their very heart. The ability to understand, design, and manage software-intense products has become of great importance to ensure sustainable success across all industries. This module introduces key aspects of the entire software product lifecycle, ranging from product strategy and planning, to the actual product development and finally the post-development phase covering aspects such das the product launch and product support. Furthermore, the interplay between processes, people, and practices will be discussed and contemporary software development paradigms will be framed into this interplay. This course puts specific emphasize on the two roles of the product manager and the product designer (also: Usability / User Experience Following an interdisciplinary perspective, this course will introduce key concepts from the field of management, marketing and human computer interaction. The course contents will be put into a practical perspective by selected industry talks. Furthermore, as part of a case study, the students will be asked to analyze and propose solutions for a given software product development challenge leveraging the knowledge acquired within the lecture and industry talks.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Students  learn basic concepts and characteristics of software products and the associated software product lifecycle.  understand the underlying mechanisms for a successful interplay between people, processes, and practices within product development.  understand key concepts and methods required for fulfilling the product management and product design role.  analyze and propose solutions for a given software product challenge along the entire lifecycle.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on the registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Case Study 1 4</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam and Case Study</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Hartmut Höhle</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>IS 540</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,144 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="232.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IS 629 Agile Software Product Management and Design</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>More and more products, from consumer to business markets, show an ever-increasing amount of software at their very heart. The ability to understand, design, and manage software-intense products has become of great importance to ensure sustainable success across all industries. This module introduces key aspects of the entire software product lifecycle, ranging from product strategy and planning, to the actual product development and finally the post-development phase covering aspects such das the product launch and product support. Furthermore, the interplay between processes, people, and practices will be discussed and contemporary software development paradigms will be framed into this interplay. This course puts specific emphasize on the two roles of the product manager and the product designer (also: Usability / User Experience Following an interdisciplinary perspective, this course will introduce key concepts from the field of management, marketing and human computer interaction. The course contents will be put into a practical perspective by selected industry talks. Furthermore, as part of a case study, the students will be asked to analyze and propose solutions for a given software product development challenge leveraging the knowledge acquired within the lecture and industry talks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students  learn basic concepts and characteristics of software products and the associated software product lifecycle.  understand the underlying mechanisms for a successful interplay between people, processes, and practices within product development.  understand key concepts and methods required for fulfilling the product management and product design role.  analyze and propose solutions for a given software product challenge along the entire lifecycle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IS 540</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on the registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Case Study 1 4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam and Case Study</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Hartmut Höhle</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
